--- a/medicine/Enfance/Kevin_Shinick/Kevin_Shinick.xlsx
+++ b/medicine/Enfance/Kevin_Shinick/Kevin_Shinick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kevin Thomas Shinick (né le 19 mars 1969 à Merrick, New York) est un acteur, producteur, réalisateur et doubleur, lauréat d'un Emmy Award et d'un Annie Award, également auteur de bandes dessinées et de romans. Il a été l'hôte de la série de PBS Where in Time Is Carmen Sandiego? et est le chef scénariste et producteur de Mad, la comédie à sketches animés. Il a servi comme directeur de création de Robot Chicken Adult Swim, où il était aussi un écrivain et doubleur, et a remporté un Emmy award 2010 pour avoir participé à l'écriture de l'émission Full-Assed Christmas Special.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Star Wars
-Le Collectionneur, Pocket, coll. « Star Wars » no 165, 2019 ((en) Force Collector, 2019), trad. Julien Bétan, 304 p.  (ISBN 978-2-266-30085-8)</t>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Collectionneur, Pocket, coll. « Star Wars » no 165, 2019 ((en) Force Collector, 2019), trad. Julien Bétan, 304 p.  (ISBN 978-2-266-30085-8)</t>
         </is>
       </c>
     </row>
